--- a/Temp/Medallero_Olimpico.xlsx
+++ b/Temp/Medallero_Olimpico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\070804781\Documents\UiPath\TASK_Case_Roboyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414C9C69-1D47-47D7-B5F1-EB5A206F8E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E60CC9B-E417-47ED-9D8A-2C51CDB5936B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="855" windowWidth="19920" windowHeight="10440" activeTab="2" xr2:uid="{BA963F06-9B00-4F5A-A984-3F67E39AA76D}"/>
+    <workbookView xWindow="855" yWindow="855" windowWidth="19920" windowHeight="10440" activeTab="2" xr2:uid="{214FAD7F-17BC-428B-A94E-167DE9AA2566}"/>
   </bookViews>
   <sheets>
     <sheet name="Oro" sheetId="1" r:id="rId1"/>
@@ -591,7 +591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05EC9D31-6B8C-49CA-8B1B-C384A4131A09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBBC955-B113-45A8-9C77-6E452FC51E35}">
   <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1267,7 +1267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D724BE8-15B9-443E-9B93-E346B6E494D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBF2674-F4E8-422E-9AAC-300213D3AC69}">
   <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1943,7 +1943,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFF37E48-4147-4B91-82F7-0FBD023E9E8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC635BCF-6557-4B72-8805-89CBFECFA929}">
   <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Temp/Medallero_Olimpico.xlsx
+++ b/Temp/Medallero_Olimpico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\070804781\Documents\UiPath\TASK_Case_Roboyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E60CC9B-E417-47ED-9D8A-2C51CDB5936B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F973DF5-C05C-4398-B521-ADBACE9E6245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="855" windowWidth="19920" windowHeight="10440" activeTab="2" xr2:uid="{214FAD7F-17BC-428B-A94E-167DE9AA2566}"/>
+    <workbookView xWindow="375" yWindow="375" windowWidth="20055" windowHeight="10575" activeTab="2" xr2:uid="{27A10023-2994-42C5-B9C3-57FDABA55FE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Oro" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="69">
   <si>
     <t>País</t>
   </si>
@@ -228,9 +228,15 @@
     <t>Comparativa</t>
   </si>
   <si>
+    <t>Equals</t>
+  </si>
+  <si>
     <t>Down</t>
   </si>
   <si>
+    <t>Up</t>
+  </si>
+  <si>
     <t>Sin participación</t>
   </si>
   <si>
@@ -238,9 +244,6 @@
   </si>
   <si>
     <t>Sin medallas</t>
-  </si>
-  <si>
-    <t>Equals</t>
   </si>
 </sst>
 </file>
@@ -591,7 +594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBBC955-B113-45A8-9C77-6E452FC51E35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F2B1B7-FEB2-4763-9FFD-6A2DE9F71544}">
   <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -616,6 +619,9 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2">
+        <v>46</v>
+      </c>
       <c r="C2">
         <v>46</v>
       </c>
@@ -627,83 +633,107 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="B3">
+        <v>27</v>
+      </c>
       <c r="C3">
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
+      <c r="B4">
+        <v>26</v>
+      </c>
       <c r="C4">
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
+      <c r="B5">
+        <v>19</v>
+      </c>
       <c r="C5">
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
+      <c r="B6">
+        <v>17</v>
+      </c>
       <c r="C6">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
       <c r="C7">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
       <c r="C8">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
       <c r="C9">
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
       <c r="C10">
         <v>8</v>
       </c>
@@ -715,28 +745,37 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
       <c r="C11">
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
       <c r="C12">
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
       <c r="C13">
         <v>8</v>
       </c>
@@ -748,61 +787,79 @@
       <c r="A14" t="s">
         <v>14</v>
       </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
       <c r="C14">
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
       <c r="C15">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
       <c r="C17">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
       <c r="C18">
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
       <c r="C19">
         <v>5</v>
       </c>
@@ -814,105 +871,135 @@
       <c r="A20" t="s">
         <v>20</v>
       </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
       <c r="C20">
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
       <c r="C23">
         <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
       <c r="C26">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
       <c r="C29">
         <v>2</v>
       </c>
@@ -924,50 +1011,65 @@
       <c r="A30" t="s">
         <v>30</v>
       </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
       <c r="C31">
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
       <c r="C32">
         <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
       <c r="C34">
         <v>2</v>
       </c>
@@ -979,127 +1081,163 @@
       <c r="A35" t="s">
         <v>35</v>
       </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
       <c r="C35">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
       <c r="C36" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D36" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
       <c r="C37" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D37" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
       <c r="C38" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D38" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
       <c r="C40">
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
       <c r="C41">
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
       <c r="C42">
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
       <c r="C43" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D43" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
       <c r="C44">
         <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
       <c r="C45">
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
       <c r="C46">
         <v>1</v>
       </c>
@@ -1111,61 +1249,79 @@
       <c r="A47" t="s">
         <v>47</v>
       </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
       <c r="C47" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D47" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
       <c r="C48">
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
       <c r="C49" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D49" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
       <c r="C50" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D50" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
       <c r="C51" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D51" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
       <c r="C52">
         <v>1</v>
       </c>
@@ -1177,88 +1333,112 @@
       <c r="A53" t="s">
         <v>53</v>
       </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
       <c r="C53" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D53" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
       <c r="C54" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D54" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
       <c r="C55" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D55" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
       <c r="C56" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D56" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
       <c r="C57" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D57" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
       <c r="C58" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D58" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
       <c r="C59" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D59" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
       <c r="C60" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D60" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1267,7 +1447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBF2674-F4E8-422E-9AAC-300213D3AC69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CFDBE7D-1E53-405B-A719-3589B0E8C79D}">
   <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1292,259 +1472,331 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2">
+        <v>37</v>
+      </c>
       <c r="C2">
         <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="B3">
+        <v>23</v>
+      </c>
       <c r="C3">
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
+      <c r="B4">
+        <v>18</v>
+      </c>
       <c r="C4">
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
+      <c r="B5">
+        <v>17</v>
+      </c>
       <c r="C5">
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
       <c r="C6">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
       <c r="C7">
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
+      <c r="B8">
+        <v>18</v>
+      </c>
       <c r="C8">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
       <c r="C11">
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
       <c r="C12">
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
       <c r="C13">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
       <c r="C14">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
       <c r="C15">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
       <c r="C16">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
       <c r="C17">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
       <c r="C19">
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
       <c r="C21">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
       <c r="C24">
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
       <c r="C25">
         <v>2</v>
       </c>
@@ -1556,28 +1808,37 @@
       <c r="A26" t="s">
         <v>26</v>
       </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
       <c r="C26">
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
       <c r="C28">
         <v>1</v>
       </c>
@@ -1589,39 +1850,51 @@
       <c r="A29" t="s">
         <v>29</v>
       </c>
+      <c r="B29">
+        <v>6</v>
+      </c>
       <c r="C29">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
       <c r="C30">
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
       <c r="C32">
         <v>5</v>
       </c>
@@ -1633,308 +1906,392 @@
       <c r="A33" t="s">
         <v>33</v>
       </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
       <c r="C34">
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
       <c r="C35" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
       <c r="C36" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D36" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
       <c r="C37" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D37" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
       <c r="C38" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D38" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
       <c r="C39">
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
+      <c r="B40">
+        <v>7</v>
+      </c>
       <c r="C40">
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
       <c r="C41">
         <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
       <c r="C42">
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
       <c r="C43" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D43" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
       <c r="C44">
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
       <c r="C47" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D47" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
       <c r="C48">
         <v>5</v>
       </c>
       <c r="D48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
       <c r="C49" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D49" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
       <c r="C50" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D50" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
       <c r="C51" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D51" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
       <c r="C52" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D52" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
       <c r="C53" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D53" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
       <c r="C54" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D54" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
       <c r="C55" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D55" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
       <c r="C56" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D56" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
       <c r="C57" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D57" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
       <c r="C58" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D58" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
       <c r="C59" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D59" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
       <c r="C60" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D60" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1943,7 +2300,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC635BCF-6557-4B72-8805-89CBFECFA929}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E4F73F-6A5D-4C0D-AA25-79BCFD62C2B3}">
   <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1968,149 +2325,191 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2">
+        <v>38</v>
+      </c>
       <c r="C2">
         <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="B3">
+        <v>17</v>
+      </c>
       <c r="C3">
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
+      <c r="B4">
+        <v>26</v>
+      </c>
       <c r="C4">
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
       <c r="C5">
         <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
       <c r="C6">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
+      <c r="B7">
+        <v>21</v>
+      </c>
       <c r="C7">
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
+      <c r="B8">
+        <v>14</v>
+      </c>
       <c r="C8">
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
       <c r="C10">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
       <c r="C11">
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
       <c r="C12">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
       <c r="C13">
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
       <c r="C14">
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
       <c r="C15">
         <v>6</v>
       </c>
@@ -2122,28 +2521,37 @@
       <c r="A16" t="s">
         <v>16</v>
       </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
       <c r="C16">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
       <c r="C17">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
       <c r="C18">
         <v>2</v>
       </c>
@@ -2155,17 +2563,23 @@
       <c r="A19" t="s">
         <v>19</v>
       </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
       <c r="C19">
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
       <c r="C20">
         <v>5</v>
       </c>
@@ -2177,105 +2591,135 @@
       <c r="A21" t="s">
         <v>21</v>
       </c>
+      <c r="B21">
+        <v>15</v>
+      </c>
       <c r="C21">
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
       <c r="C22">
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
       <c r="C23">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
       <c r="C24">
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
       <c r="C26">
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
+      <c r="B29">
+        <v>7</v>
+      </c>
       <c r="C29">
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
       <c r="C30">
         <v>3</v>
       </c>
@@ -2287,28 +2731,37 @@
       <c r="A31" t="s">
         <v>31</v>
       </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
       <c r="C32">
         <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
       <c r="C33">
         <v>2</v>
       </c>
@@ -2320,6 +2773,9 @@
       <c r="A34" t="s">
         <v>34</v>
       </c>
+      <c r="B34">
+        <v>6</v>
+      </c>
       <c r="C34">
         <v>6</v>
       </c>
@@ -2331,6 +2787,9 @@
       <c r="A35" t="s">
         <v>35</v>
       </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
       <c r="C35">
         <v>2</v>
       </c>
@@ -2342,138 +2801,177 @@
       <c r="A36" t="s">
         <v>36</v>
       </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
       <c r="C36" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D36" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
       <c r="C37" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D37" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
       <c r="C38" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D38" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
       <c r="C39">
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
       <c r="C40">
         <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
       <c r="C41">
         <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
       <c r="C43" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D43" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
+      <c r="B44">
+        <v>7</v>
+      </c>
       <c r="C44">
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
       <c r="C45">
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
       <c r="C46">
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
       <c r="C47" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D47" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
       <c r="C48">
         <v>2</v>
       </c>
@@ -2485,132 +2983,168 @@
       <c r="A49" t="s">
         <v>49</v>
       </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
       <c r="C49" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D49" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
       <c r="C50" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D50" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
       <c r="C51" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D51" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
       <c r="C52" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D52" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
       <c r="C53" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D53" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
       <c r="C54" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D54" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
       <c r="C55" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D55" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
       <c r="C56" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D56" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
       <c r="C57" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D57" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
       <c r="C58" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D58" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
       <c r="C59" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D59" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
       <c r="C60" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D60" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Temp/Medallero_Olimpico.xlsx
+++ b/Temp/Medallero_Olimpico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\070804781\Documents\UiPath\TASK_Case_Roboyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F973DF5-C05C-4398-B521-ADBACE9E6245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EB6AFB-3E8B-49EA-BED0-ECFD0CF1AA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="375" windowWidth="20055" windowHeight="10575" activeTab="2" xr2:uid="{27A10023-2994-42C5-B9C3-57FDABA55FE4}"/>
+    <workbookView xWindow="375" yWindow="375" windowWidth="20055" windowHeight="10575" activeTab="2" xr2:uid="{5876AF74-9FA7-4C3D-924A-D631A8BC499A}"/>
   </bookViews>
   <sheets>
     <sheet name="Oro" sheetId="1" r:id="rId1"/>
@@ -594,7 +594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F2B1B7-FEB2-4763-9FFD-6A2DE9F71544}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA2866AF-90E7-407D-83FD-B2A793B1DDF9}">
   <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1447,7 +1447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CFDBE7D-1E53-405B-A719-3589B0E8C79D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A37C0F-FB82-4CC9-B8FC-36EA82F54D21}">
   <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2300,7 +2300,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E4F73F-6A5D-4C0D-AA25-79BCFD62C2B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D0FF5E7-81A7-403E-BCCF-6CA9FB43D60F}">
   <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
